--- a/portfolio_data_EX3.xlsx
+++ b/portfolio_data_EX3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16e092a6a9e991bb/GAB_App/GAB_AssetMind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{5F1F9E48-D2A8-41E7-966C-15DA8095C2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE4C49AB-84CC-4D0C-872B-51842C9BC3F4}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{5F1F9E48-D2A8-41E7-966C-15DA8095C2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240A6B06-F927-4FA7-A4BE-E3DE92DA2901}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,8 +921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
